--- a/CA_data/LC/Epct1/2021-22/10+FRESNO.xlsx
+++ b/CA_data/LC/Epct1/2021-22/10+FRESNO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="197">
   <si>
     <t>Fresno CountyLanguage Group Data - Countywidefor  2021 - 22</t>
   </si>
@@ -139,45 +139,45 @@
     <t>Italian</t>
   </si>
   <si>
+    <t>Zapoteco</t>
+  </si>
+  <si>
     <t>Tamil</t>
   </si>
   <si>
-    <t>Zapoteco</t>
+    <t>Khmu</t>
   </si>
   <si>
     <t>Rumanian</t>
   </si>
   <si>
-    <t>Khmu</t>
-  </si>
-  <si>
     <t>Assyrian</t>
   </si>
   <si>
     <t>Telugu</t>
   </si>
   <si>
+    <t>Mien (Yao)</t>
+  </si>
+  <si>
     <t>Turkish</t>
   </si>
   <si>
-    <t>Mien (Yao)</t>
-  </si>
-  <si>
     <t>Taiwanese</t>
   </si>
   <si>
+    <t>Amharic</t>
+  </si>
+  <si>
     <t>Greek</t>
   </si>
   <si>
-    <t>Amharic</t>
+    <t>Marshallese</t>
   </si>
   <si>
     <t>Dutch</t>
   </si>
   <si>
-    <t>Marshallese</t>
-  </si>
-  <si>
     <t>Burmese</t>
   </si>
   <si>
@@ -190,31 +190,61 @@
     <t>Albanian</t>
   </si>
   <si>
+    <t>Tongan</t>
+  </si>
+  <si>
     <t>Swedish</t>
   </si>
   <si>
-    <t>Tongan</t>
-  </si>
-  <si>
     <t>Polish</t>
   </si>
   <si>
+    <t>Nepali</t>
+  </si>
+  <si>
     <t>Marathi</t>
   </si>
   <si>
-    <t>Nepali</t>
+    <t>Tigrinya</t>
+  </si>
+  <si>
+    <t>Bulgarian</t>
+  </si>
+  <si>
+    <t>Serbo-Croatian (Bosnian, Croatian, Serbian)</t>
   </si>
   <si>
     <t>Swahili</t>
   </si>
   <si>
-    <t>Bulgarian</t>
-  </si>
-  <si>
-    <t>Tigrinya</t>
-  </si>
-  <si>
-    <t>Serbo-Croatian (Bosnian, Croatian, Serbian)</t>
+    <t>Central American Indian Languages</t>
+  </si>
+  <si>
+    <t>Chaldean</t>
+  </si>
+  <si>
+    <t>Kannada</t>
+  </si>
+  <si>
+    <t>Mayan Languages</t>
+  </si>
+  <si>
+    <t>Uzbek</t>
+  </si>
+  <si>
+    <t>Lithuanian</t>
+  </si>
+  <si>
+    <t>Malayalam</t>
+  </si>
+  <si>
+    <t>Chamorro (Guamanian)</t>
+  </si>
+  <si>
+    <t>Czech</t>
+  </si>
+  <si>
+    <t>Igbo</t>
   </si>
   <si>
     <t>Hungarian</t>
@@ -226,16 +256,10 @@
     <t>Lahu</t>
   </si>
   <si>
-    <t>Uzbek</t>
-  </si>
-  <si>
-    <t>Chaldean</t>
-  </si>
-  <si>
-    <t>Kannada</t>
-  </si>
-  <si>
-    <t>Chamorro (Guamanian)</t>
+    <t>Malay</t>
+  </si>
+  <si>
+    <t>Chaozhou (Chiuchow)</t>
   </si>
   <si>
     <t>Fresno County Total</t>
@@ -334,10 +358,10 @@
     <t>1</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
   <si>
     <t>2</t>
@@ -938,7 +962,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -972,19 +996,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -992,19 +1016,19 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="F3" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="G3" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1012,16 +1036,16 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1029,16 +1053,16 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F5" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1046,16 +1070,16 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F6" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1063,16 +1087,16 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="F7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1080,16 +1104,16 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F8" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1097,16 +1121,16 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E9" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F9" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1114,16 +1138,16 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F10" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1131,16 +1155,16 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E11" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F11" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1148,16 +1172,16 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E12" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F12" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1165,16 +1189,16 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F13" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1182,16 +1206,16 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E14" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F14" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1199,16 +1223,16 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E15" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F15" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1216,16 +1240,16 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F16" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1233,16 +1257,16 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E17" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F17" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1250,16 +1274,16 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E18" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F18" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1267,16 +1291,16 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E19" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="F19" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1284,16 +1308,16 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E20" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="F20" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1301,16 +1325,16 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E21" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F21" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1318,16 +1342,16 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E22" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F22" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1335,16 +1359,16 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D23" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E23" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F23" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1352,16 +1376,16 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E24" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="F24" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1369,16 +1393,16 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E25" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F25" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1386,16 +1410,16 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D26" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F26" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1403,16 +1427,16 @@
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E27" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F27" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1420,16 +1444,16 @@
         <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E28" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F28" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1437,16 +1461,16 @@
         <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E29" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="F29" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1454,16 +1478,16 @@
         <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E30" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F30" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1471,16 +1495,16 @@
         <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D31" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E31" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="F31" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1488,16 +1512,16 @@
         <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E32" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F32" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1505,16 +1529,16 @@
         <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E33" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F33" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1522,16 +1546,16 @@
         <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" t="s">
         <v>107</v>
       </c>
-      <c r="E34" t="s">
-        <v>99</v>
-      </c>
       <c r="F34" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1539,16 +1563,16 @@
         <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E35" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F35" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1556,16 +1580,16 @@
         <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D36" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E36" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F36" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1573,16 +1597,16 @@
         <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E37" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F37" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1590,16 +1614,16 @@
         <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D38" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E38" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F38" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1607,16 +1631,16 @@
         <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D39" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E39" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F39" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1624,16 +1648,16 @@
         <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D40" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E40" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F40" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1641,13 +1665,13 @@
         <v>46</v>
       </c>
       <c r="D41" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E41" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F41" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1655,16 +1679,16 @@
         <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E42" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F42" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1672,16 +1696,16 @@
         <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D43" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E43" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F43" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1689,16 +1713,16 @@
         <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E44" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F44" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1706,16 +1730,16 @@
         <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D45" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E45" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F45" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1723,16 +1747,16 @@
         <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D46" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="E46" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F46" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1740,16 +1764,16 @@
         <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D47" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E47" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F47" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1757,16 +1781,16 @@
         <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D48" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E48" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F48" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1774,13 +1798,13 @@
         <v>54</v>
       </c>
       <c r="D49" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E49" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F49" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1788,13 +1812,13 @@
         <v>55</v>
       </c>
       <c r="D50" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E50" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="F50" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1802,13 +1826,13 @@
         <v>56</v>
       </c>
       <c r="D51" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E51" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="F51" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1816,44 +1840,44 @@
         <v>57</v>
       </c>
       <c r="D52" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E52" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F52" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>58</v>
       </c>
+      <c r="C53" t="s">
+        <v>116</v>
+      </c>
       <c r="D53" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E53" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F53" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>59</v>
       </c>
-      <c r="C54" t="s">
-        <v>108</v>
-      </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E54" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F54" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1861,41 +1885,41 @@
         <v>60</v>
       </c>
       <c r="D55" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E55" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F55" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>61</v>
       </c>
-      <c r="C56" t="s">
-        <v>105</v>
+      <c r="D56" t="s">
+        <v>113</v>
       </c>
       <c r="E56" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F56" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>62</v>
       </c>
-      <c r="D57" t="s">
-        <v>105</v>
+      <c r="C57" t="s">
+        <v>113</v>
       </c>
       <c r="E57" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F57" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1903,13 +1927,13 @@
         <v>63</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E58" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1917,13 +1941,13 @@
         <v>64</v>
       </c>
       <c r="D59" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E59" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1931,13 +1955,13 @@
         <v>65</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E60" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F60" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1945,13 +1969,13 @@
         <v>66</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E61" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F61" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1959,7 +1983,7 @@
         <v>67</v>
       </c>
       <c r="F62" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1967,7 +1991,7 @@
         <v>68</v>
       </c>
       <c r="F63" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1975,7 +1999,7 @@
         <v>69</v>
       </c>
       <c r="F64" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,7 +2007,7 @@
         <v>70</v>
       </c>
       <c r="F65" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1991,7 +2015,7 @@
         <v>71</v>
       </c>
       <c r="F66" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1999,60 +2023,124 @@
         <v>72</v>
       </c>
       <c r="F67" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>73</v>
+      </c>
       <c r="F68" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" t="s">
-        <v>73</v>
-      </c>
       <c r="F69" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>74</v>
       </c>
-      <c r="B70" t="s">
-        <v>77</v>
-      </c>
-      <c r="C70" t="s">
-        <v>109</v>
-      </c>
-      <c r="D70" t="s">
-        <v>137</v>
-      </c>
-      <c r="E70" t="s">
-        <v>167</v>
-      </c>
       <c r="F70" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>75</v>
       </c>
-      <c r="B71" t="s">
+      <c r="F71" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>76</v>
+      </c>
+      <c r="F72" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="F73" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
         <v>78</v>
       </c>
-      <c r="C71" t="s">
-        <v>110</v>
-      </c>
-      <c r="D71" t="s">
-        <v>138</v>
-      </c>
-      <c r="E71" t="s">
-        <v>168</v>
-      </c>
-      <c r="F71" t="s">
-        <v>187</v>
+      <c r="F74" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>79</v>
+      </c>
+      <c r="F75" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>80</v>
+      </c>
+      <c r="F76" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>81</v>
+      </c>
+      <c r="F77" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" t="s">
+        <v>117</v>
+      </c>
+      <c r="D78" t="s">
+        <v>145</v>
+      </c>
+      <c r="E78" t="s">
+        <v>175</v>
+      </c>
+      <c r="F78" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79" t="s">
+        <v>118</v>
+      </c>
+      <c r="D79" t="s">
+        <v>146</v>
+      </c>
+      <c r="E79" t="s">
+        <v>176</v>
+      </c>
+      <c r="F79" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
